--- a/data/2/20230608-a1r-nc-session2-j_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-j_transcript.xlsx
@@ -1,420 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:08 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3271DF7-2848-6A48-8EDC-113BE7C3D2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230608-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:03"</t>
-  </si>
-  <si>
-    <t>Hi, my name is Janine Schmidt. I am in western Nebraska and I'm a municipal clerk and treasurer.</t>
-  </si>
-  <si>
-    <t>"2:17"</t>
-  </si>
-  <si>
-    <t>Hi, my name is Terry hail. I'm from Madison, Alabama, I'm a full-time class artist and instructor.</t>
-  </si>
-  <si>
-    <t>"2:28"</t>
-  </si>
-  <si>
-    <t>Hi everyone. I'm James in California, I'm a mechanical engineer.</t>
-  </si>
-  <si>
-    <t>"2:37"</t>
-  </si>
-  <si>
-    <t>Hi, I'm Alana from Long Island New York and I'm a math teacher.</t>
-  </si>
-  <si>
-    <t>"2:42"</t>
-  </si>
-  <si>
-    <t>Hello, my name is John. I'm a shipping and receiving supervisor. And warehouse supervisor manager, for in Cincinnati.</t>
-  </si>
-  <si>
-    <t>"2:55"</t>
-  </si>
-  <si>
-    <t>"3:03"</t>
-  </si>
-  <si>
-    <t>Hello, I'm Teresa cook from Alabama. And right now, I'm a caregiver for my two, youngest, grandkids Age, 5 and 4. Thank you.</t>
-  </si>
-  <si>
-    <t>"3:12"</t>
-  </si>
-  <si>
-    <t>I just wanted to Christina, I didn't hear any audio from you just so you're aware.</t>
-  </si>
-  <si>
-    <t>"3:43"</t>
-  </si>
-  <si>
-    <t>Christina, maybe having the same trouble. I had, I had to log out and back in like, four times in order to get my microphone to work.</t>
-  </si>
-  <si>
-    <t>"11:33"</t>
-  </si>
-  <si>
-    <t>I'm personally, I think that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L already have enough control over who ends up running for office. It needs to be the people who are actually going to be affected who can choose, who's going to run for office. Instead of people who are owed favors or whatever you want to call it.</t>
-  </si>
-  <si>
-    <t>"11:59"</t>
-  </si>
-  <si>
-    <t>I didn't know how to put it in exact words but I agree 100% with what Darius. I just couldn't.</t>
-  </si>
-  <si>
-    <t>"12:08"</t>
-  </si>
-  <si>
-    <t>I agree as well. I don't think that they should be able to choose who goes into the positions available.</t>
-  </si>
-  <si>
-    <t>"12:16"</t>
-  </si>
-  <si>
-    <t>I absolutely agree. They already have enough influence over the candidate. That's moving on.</t>
-  </si>
-  <si>
-    <t>"12:29"</t>
-  </si>
-  <si>
-    <t>I'm in agreement.</t>
-  </si>
-  <si>
-    <t>"12:33"</t>
-  </si>
-  <si>
-    <t>Yeah, I think your ear all spot-on on that. It's just, it seems like they have way too much influence.</t>
-  </si>
-  <si>
-    <t>"14:09"</t>
-  </si>
-  <si>
-    <t>You know, I've always wondered. I've always wondered, do the Electoral College actually vote for, who you vote for? Are they allowed to to waver from that? I think that's what it kind of bothers me and scares me.</t>
-  </si>
-  <si>
-    <t>"14:28"</t>
-  </si>
-  <si>
-    <t>Well, I'm for keeping the Electoral College from the last session we attended doing the. If you do an amendment to the ranked choice that seems to cause more elections within your state. And I know in Nebraska, we have a lower turnout. So, at this point, I feel like, if you don't keep it, you're just allowing California and New York.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To dictate who's going to be our next president.</t>
-  </si>
-  <si>
-    <t>"15:06"</t>
-  </si>
-  <si>
-    <t>Well, I'm going to take a different stab at it. Here, I would like to see an amendment to the Constitution and adopt the national popular vote. I think one reason a lot of people don't both these days is because of the Electoral College. It's confusing and people feel like their vote gets lost in the shuffle or cancelled out for some reason. So I'm all for the national popular vote.</t>
-  </si>
-  <si>
-    <t>"15:33"</t>
-  </si>
-  <si>
-    <t>Yeah, I found it interesting in the literature, they said the founders were concerned that voters would not know enough about the candidates to make informed choices. And that was the reason why they formed the electoral college. So I feel like we're not in that situation anymore. So what's the point of the Electoral College?</t>
-  </si>
-  <si>
-    <t>"15:51"</t>
-  </si>
-  <si>
-    <t>I also feel that the popular vote should win the election to me just makes more sense if that's what everybody wanted, if the majority wants that, then why are we not using that system?</t>
-  </si>
-  <si>
-    <t>"16:12"</t>
-  </si>
-  <si>
-    <t>you know, I agree that the problem is people are confused about things and again, votes Villi people feel like their votes are lost because</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Electoral College doesn't reflect the popular vote.</t>
-  </si>
-  <si>
-    <t>"16:35"</t>
-  </si>
-  <si>
-    <t>I also think it's frustrating, if a candidate has the most popular vote and doesn't win and it's and if it's especially if it's closed. But the popular vote might have been, they won by, you know, Millions like how, how does how does that happen? They actually got booted into their position, but didn't get the Electoral College.</t>
-  </si>
-  <si>
-    <t>"16:57"</t>
-  </si>
-  <si>
-    <t>Well, then we need better voter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Registration showing IDs and things like that because it's easy to win a boat popular vote. If you have people who aren't alive voting or people who aren't from our country voting,</t>
-  </si>
-  <si>
-    <t>"18:46"</t>
-  </si>
-  <si>
-    <t>I agree with this because it goes back to what we were talking about. Before I believe the popular vote is what should win the elections.</t>
-  </si>
-  <si>
-    <t>"18:55"</t>
-  </si>
-  <si>
-    <t>I agree. The first pro on here, says that the method would ensure that the winner of the national popular vote, whether by plurality or majority also wins The Electoral College and becomes president, that only seems fair to me,</t>
-  </si>
-  <si>
-    <t>"19:09"</t>
-  </si>
-  <si>
-    <t>I agree with that popular vote because I don't understand why before we're locking the parcel with the bus folk didn't win. So I think it should be the popular vote.</t>
-  </si>
-  <si>
-    <t>"19:20"</t>
-  </si>
-  <si>
-    <t>I feel like it kind of complicates it like I agree with all of you if it's the popular vote but then when it be better, just to change the rule to the popular vote wins, I feel like this is too complicated, but it might be because it's easier to make this change as opposed to that change.</t>
-  </si>
-  <si>
-    <t>"19:39"</t>
-  </si>
-  <si>
-    <t>Yeah, I would I would second that, I mean, if we were going to go with this route, I think it would just make more sense has to go up the popular vote.</t>
-  </si>
-  <si>
-    <t>"19:53"</t>
-  </si>
-  <si>
-    <t>And that's a good question to ask because it probably is for some type of legal reasons they would keep the Electoral College on. Otherwise it would be in simpler terms for everyone to understand that most votes wins just, you know, people do that in elementary school so but they could still present it. That way, that the popular vote is the one that wins. So if they're changing the Constitution or the rules and it would be easier for everyone to understand.</t>
-  </si>
-  <si>
-    <t>"21:28"</t>
-  </si>
-  <si>
-    <t>I mean, I think, I think term limits would be fine. I mean, everything else is pretty much. I'm tournaments except for congress. It seems like, but yeah, it's a term limits would be fine with the Supreme Court I think</t>
-  </si>
-  <si>
-    <t>"21:45"</t>
-  </si>
-  <si>
-    <t>I agree, and I even think the 18-year term is a little bit long. That's, you know, that's almost a generation there and the world's changing a lot faster than it used to. I think that's too long for one person to have that much power, and we're seeing that kind of get corrupted. Now, I don't know about the nine members changing that or whatever, but I really think we need to look over the whole situation differently.</t>
-  </si>
-  <si>
-    <t>"22:13"</t>
-  </si>
-  <si>
-    <t>I agree. I think 18 years. I mean, I don't think it should be life at all anymore. 18 years is a lot, but that's better than</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What we currently have?</t>
-  </si>
-  <si>
-    <t>"22:27"</t>
-  </si>
-  <si>
-    <t>I just want to know why they're saying, require the members of the Supreme Court to comply with the same ethical standards that apply to other judges. I would think that would be absolutely in there from the get-go.</t>
-  </si>
-  <si>
-    <t>"22:43"</t>
-  </si>
-  <si>
-    <t>I agree with that when I was looking down, trying to read on underneath the topics to see if they elaborated on that and I didn't see it anywhere. But how are they not being held in the same ethical standards? That doesn't make any sense to me?</t>
-  </si>
-  <si>
-    <t>"22:57"</t>
-  </si>
-  <si>
-    <t>Yeah, I think we should actually be in since that there's any way to work around that. I did the same thing. I read it three times to make sure I read that correctly. So yeah, we need to take care of that.</t>
-  </si>
-  <si>
-    <t>"23:09"</t>
-  </si>
-  <si>
-    <t>I know exactly Terry you said it right. They should be probably held at a higher standard not at the same standard and I just it just shocked me that that was even in there.</t>
-  </si>
-  <si>
-    <t>"24:38"</t>
-  </si>
-  <si>
-    <t>Heck yeah we need civic education. I went to school a hundred years ago and I feel like I didn't get much of an education on it and I know my own child has only learned on his own about all of this and my talking with us and just to give you an idea why I'm so upset our state elected. A senator who did not know the three branches of government that's embarrassing.</t>
-  </si>
-  <si>
-    <t>"25:04"</t>
-  </si>
-  <si>
-    <t>Yeah, I totally agree. I'm all for civic education. I might my daughter is in fifth grade and I was helping her. She had to learn because they were like pretending to vote and I'm like, I don't remember any of this stuff and I had to, like, learn along with her and I was kind of embarrassed.</t>
-  </si>
-  <si>
-    <t>"25:22"</t>
-  </si>
-  <si>
-    <t>I agree as well. I think it should just be part of the school. Curriculum we have. I mean in my school that I teach at alone, I have no native English speakers in my class. So it will be reaching to a diverse population, as well as their parents, we can send him the information in all languages. And I think if the school can provide that it would also not be that costly if we can just communicate it through the parents and through the high schools and colleges as well.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Well.</t>
-  </si>
-  <si>
-    <t>"25:55"</t>
-  </si>
-  <si>
-    <t>I'll break it should be in school more. I went to school years ago and we didn't learn as much as we should have.</t>
-  </si>
-  <si>
-    <t>"26:09"</t>
-  </si>
-  <si>
-    <t>I was just gonna say one more thing. I know an easy way to get people, you know, if you, if you don't want to just send paperwork home because parents or students aren't going to read it, have like a pizza night. That's an expensive people get drawn to free food and it doesn't have to cost that much and then it can be a half hour, 45 minute, just simple processes, show them how easy it is to vote.</t>
-  </si>
-  <si>
-    <t>"29:22"</t>
-  </si>
-  <si>
-    <t>Looks like several of us are upset about that whole ethical standards question.</t>
-  </si>
-  <si>
-    <t>"31:20"</t>
-  </si>
-  <si>
-    <t>As I was saying, it looks like. We basically have one question here.</t>
-  </si>
-  <si>
-    <t>"31:30"</t>
-  </si>
-  <si>
-    <t>I think we're pretty much all on the same page with this, like Terry said. And I think that we need to just leave this question as is to move forward.</t>
-  </si>
-  <si>
-    <t>"32:15"</t>
-  </si>
-  <si>
-    <t>Again, I think we just leave the question as it is perfect as it states.</t>
-  </si>
-  <si>
-    <t>"33:22"</t>
-  </si>
-  <si>
-    <t>I think this is a good question too and I would maybe add not only how long would it take but like what are the necessary steps? Like what would have to be done in order for that change to me?</t>
-  </si>
-  <si>
-    <t>"33:37"</t>
-  </si>
-  <si>
-    <t>it was almost word for word, but I was going to say, Alana,</t>
-  </si>
-  <si>
-    <t>"33:40"</t>
-  </si>
-  <si>
-    <t>Great feedback.</t>
-  </si>
-  <si>
-    <t>"33:55"</t>
-  </si>
-  <si>
-    <t>Yeah, just going to say I agree, I think this is a good question as well and the other ones were all on the same page. So that's in my mind. Easy pick for the top two.</t>
-  </si>
-  <si>
-    <t>"34:29"</t>
-  </si>
-  <si>
-    <t>I do want to say that this is actually a great question because we're not just talking about Judges, we're talking about all elected officials and every elected official as long as well as the employees that they appoint and hire should be following the same ethical</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -490,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -596,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1678,847 +1293,1020 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS69"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"2:03"</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"2:03"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Hi, my name is Janine Schmidt. I am in western Nebraska and I'm a municipal clerk and treasurer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"2:17"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Hi, my name is Terry hail. I'm from Madison, Alabama, I'm a full-time class artist and instructor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>10150</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"2:28"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Hi everyone. I'm James in California, I'm a mechanical engineer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>48701</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"2:37"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Hi, I'm Alana from Long Island New York and I'm a math teacher.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48707</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"2:42"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Hello, my name is John. I'm a shipping and receiving supervisor. And warehouse supervisor manager, for in Cincinnati.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>48707</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"2:42"</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"2:55"</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>9870</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"3:03"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Hello, I'm Teresa cook from Alabama. And right now, I'm a caregiver for my two, youngest, grandkids Age, 5 and 4. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>10150</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"3:12"</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>10150</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"3:12"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>I just wanted to Christina, I didn't hear any audio from you just so you're aware.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"3:43"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Christina, maybe having the same trouble. I had, I had to log out and back in like, four times in order to get my microphone to work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"11:33"</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"11:33"</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>I'm personally, I think that</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"11:33"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L already have enough control over who ends up running for office. It needs to be the people who are actually going to be affected who can choose, who's going to run for office. Instead of people who are owed favors or whatever you want to call it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>9870</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"11:59"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>I didn't know how to put it in exact words but I agree 100% with what Darius. I just couldn't.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"12:08"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>I agree as well. I don't think that they should be able to choose who goes into the positions available.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"12:16"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>I absolutely agree. They already have enough influence over the candidate. That's moving on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>10150</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"12:29"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>I'm in agreement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>48707</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"12:33"</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I think your ear all spot-on on that. It's just, it seems like they have way too much influence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48707</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"14:09"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>You know, I've always wondered. I've always wondered, do the Electoral College actually vote for, who you vote for? Are they allowed to to waver from that? I think that's what it kind of bothers me and scares me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"14:28"</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="n"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"14:28"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>Well, I'm for keeping the Electoral College from the last session we attended doing the. If you do an amendment to the ranked choice that seems to cause more elections within your state. And I know in Nebraska, we have a lower turnout. So, at this point, I feel like, if you don't keep it, you're just allowing California and New York.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"14:28"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To dictate who's going to be our next president.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"15:06"</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"15:06"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Well, I'm going to take a different stab at it. Here, I would like to see an amendment to the Constitution and adopt the national popular vote. I think one reason a lot of people don't both these days is because of the Electoral College. It's confusing and people feel like their vote gets lost in the shuffle or cancelled out for some reason. So I'm all for the national popular vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>48701</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"15:33"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I found it interesting in the literature, they said the founders were concerned that voters would not know enough about the candidates to make informed choices. And that was the reason why they formed the electoral college. So I feel like we're not in that situation anymore. So what's the point of the Electoral College?</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"15:51"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>I also feel that the popular vote should win the election to me just makes more sense if that's what everybody wanted, if the majority wants that, then why are we not using that system?</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"16:12"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>you know, I agree that the problem is people are confused about things and again, votes Villi people feel like their votes are lost because</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"16:12"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Electoral College doesn't reflect the popular vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"16:35"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>I also think it's frustrating, if a candidate has the most popular vote and doesn't win and it's and if it's especially if it's closed. But the popular vote might have been, they won by, you know, Millions like how, how does how does that happen? They actually got booted into their position, but didn't get the Electoral College.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"16:57"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>Well, then we need better voter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"16:57"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Registration showing IDs and things like that because it's easy to win a boat popular vote. If you have people who aren't alive voting or people who aren't from our country voting,</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"18:46"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>I agree with this because it goes back to what we were talking about. Before I believe the popular vote is what should win the elections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"18:55"</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="n"/>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"18:55"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>I agree. The first pro on here, says that the method would ensure that the winner of the national popular vote, whether by plurality or majority also wins The Electoral College and becomes president, that only seems fair to me,</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>9870</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"19:09"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>I agree with that popular vote because I don't understand why before we're locking the parcel with the bus folk didn't win. So I think it should be the popular vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>48701</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"19:20"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>I feel like it kind of complicates it like I agree with all of you if it's the popular vote but then when it be better, just to change the rule to the popular vote wins, I feel like this is too complicated, but it might be because it's easier to make this change as opposed to that change.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>10150</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"19:39"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I would I would second that, I mean, if we were going to go with this route, I think it would just make more sense has to go up the popular vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"19:53"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>And that's a good question to ask because it probably is for some type of legal reasons they would keep the Electoral College on. Otherwise it would be in simpler terms for everyone to understand that most votes wins just, you know, people do that in elementary school so but they could still present it. That way, that the popular vote is the one that wins. So if they're changing the Constitution or the rules and it would be easier for everyone to understand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>48707</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"21:28"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>I mean, I think, I think term limits would be fine. I mean, everything else is pretty much. I'm tournaments except for congress. It seems like, but yeah, it's a term limits would be fine with the Supreme Court I think</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"21:45"</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n"/>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"21:45"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>I agree, and I even think the 18-year term is a little bit long. That's, you know, that's almost a generation there and the world's changing a lot faster than it used to. I think that's too long for one person to have that much power, and we're seeing that kind of get corrupted. Now, I don't know about the nine members changing that or whatever, but I really think we need to look over the whole situation differently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"22:13"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>I agree. I think 18 years. I mean, I don't think it should be life at all anymore. 18 years is a lot, but that's better than</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"22:13"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> What we currently have?</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"22:27"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>I just want to know why they're saying, require the members of the Supreme Court to comply with the same ethical standards that apply to other judges. I would think that would be absolutely in there from the get-go.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"22:43"</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="n"/>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"22:43"</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>I agree with that when I was looking down, trying to read on underneath the topics to see if they elaborated on that and I didn't see it anywhere. But how are they not being held in the same ethical standards? That doesn't make any sense to me?</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"22:57"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I think we should actually be in since that there's any way to work around that. I did the same thing. I read it three times to make sure I read that correctly. So yeah, we need to take care of that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"23:09"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>I know exactly Terry you said it right. They should be probably held at a higher standard not at the same standard and I just it just shocked me that that was even in there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"24:38"</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="n"/>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"24:38"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>Heck yeah we need civic education. I went to school a hundred years ago and I feel like I didn't get much of an education on it and I know my own child has only learned on his own about all of this and my talking with us and just to give you an idea why I'm so upset our state elected. A senator who did not know the three branches of government that's embarrassing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>48701</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"25:04"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I totally agree. I'm all for civic education. I might my daughter is in fifth grade and I was helping her. She had to learn because they were like pretending to vote and I'm like, I don't remember any of this stuff and I had to, like, learn along with her and I was kind of embarrassed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"25:22"</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="n"/>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"25:22"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>I agree as well. I think it should just be part of the school. Curriculum we have. I mean in my school that I teach at alone, I have no native English speakers in my class. So it will be reaching to a diverse population, as well as their parents, we can send him the information in all languages. And I think if the school can provide that it would also not be that costly if we can just communicate it through the parents and through the high schools and colleges as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"25:22"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="9">
+      <c r="A58" s="4" t="n">
         <v>9870</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>"25:55"</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>I'll break it should be in school more. I went to school years ago and we didn't learn as much as we should have.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="9">
+      <c r="A59" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>"26:09"</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>I was just gonna say one more thing. I know an easy way to get people, you know, if you, if you don't want to just send paperwork home because parents or students aren't going to read it, have like a pizza night. That's an expensive people get drawn to free food and it doesn't have to cost that much and then it can be a half hour, 45 minute, just simple processes, show them how easy it is to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="9">
+      <c r="A60" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>"29:22"</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>Looks like several of us are upset about that whole ethical standards question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="9">
+      <c r="A61" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>"31:20"</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>As I was saying, it looks like. We basically have one question here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="9">
+      <c r="A62" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>"31:30"</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>I think we're pretty much all on the same page with this, like Terry said. And I think that we need to just leave this question as is to move forward.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="9">
+      <c r="A63" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>"32:15"</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="n"/>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="9">
+      <c r="A64" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>"32:15"</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>Again, I think we just leave the question as it is perfect as it states.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="9">
+      <c r="A65" s="4" t="n">
         <v>48701</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>"33:22"</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>I think this is a good question too and I would maybe add not only how long would it take but like what are the necessary steps? Like what would have to be done in order for that change to me?</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="9">
+      <c r="A66" s="4" t="n">
         <v>48700</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>"33:37"</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>it was almost word for word, but I was going to say, Alana,</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="9">
+      <c r="A67" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>"33:40"</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>Great feedback.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="9">
+      <c r="A68" s="4" t="n">
         <v>48704</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>"33:55"</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, just going to say I agree, I think this is a good question as well and the other ones were all on the same page. So that's in my mind. Easy pick for the top two.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="9">
+      <c r="A69" s="4" t="n">
         <v>48705</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>105</v>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>"34:29"</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>I do want to say that this is actually a great question because we're not just talking about Judges, we're talking about all elected officials and every elected official as long as well as the employees that they appoint and hire should be following the same ethical</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AA4288-6732-7442-9112-4B87D94B6BAB}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/2/20230608-a1r-nc-session2-j_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-j_transcript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
